--- a/Thesis Document/Thesis Diagrams (Drawn).xlsx
+++ b/Thesis Document/Thesis Diagrams (Drawn).xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GridWorld Diagrams" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -37,15 +37,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7E79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -53,24 +59,3598 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7E79"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Quad Arrow 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="825500"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Left-Right-Up Arrow 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="1409700"/>
+          <a:ext cx="457200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12234"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Quad Arrow 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="1562100"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Quad Arrow 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="2298700"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Quad Arrow 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340100" y="1562100"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Quad Arrow 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340100" y="2286000"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Quad Arrow 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4051300" y="2286000"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Quad Arrow 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="2997200"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Quad Arrow 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340100" y="2984500"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Quad Arrow 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="2997200"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Quad Arrow 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="1587500"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Left-Right-Up Arrow 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4660900" y="3035300"/>
+          <a:ext cx="457200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12234"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Left-Right-Up Arrow 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4660900" y="2311400"/>
+          <a:ext cx="457200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12234"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Left-Right-Up Arrow 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4673600" y="1625600"/>
+          <a:ext cx="457200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12234"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Left-Right-Up Arrow 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1968500" y="3035300"/>
+          <a:ext cx="457200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12234"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Left-Right-Up Arrow 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1968500" y="1638300"/>
+          <a:ext cx="457200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12234"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Left-Right-Up Arrow 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1968500" y="2336800"/>
+          <a:ext cx="457200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12234"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Left-Right-Up Arrow 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2628900" y="990600"/>
+          <a:ext cx="457200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12234"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Left-Right-Up Arrow 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3352800" y="990600"/>
+          <a:ext cx="457200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12234"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Left-Right-Up Arrow 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4051300" y="977900"/>
+          <a:ext cx="457200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12234"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Left-Right-Up Arrow 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2616200" y="3657600"/>
+          <a:ext cx="457200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12234"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Left-Right-Up Arrow 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340100" y="3657600"/>
+          <a:ext cx="457200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12234"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Left-Right-Up Arrow 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4051300" y="3683000"/>
+          <a:ext cx="457200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12234"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Left-Up Arrow 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="3695700"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11666"/>
+            <a:gd name="adj2" fmla="val 23696"/>
+            <a:gd name="adj3" fmla="val 21715"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Left-Up Arrow 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2038350" y="3676650"/>
+          <a:ext cx="330200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11666"/>
+            <a:gd name="adj2" fmla="val 23696"/>
+            <a:gd name="adj3" fmla="val 21715"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Left-Up Arrow 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2070100" y="977900"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11666"/>
+            <a:gd name="adj2" fmla="val 23696"/>
+            <a:gd name="adj3" fmla="val 21715"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Left-Up Arrow 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4800600" y="990600"/>
+          <a:ext cx="279400" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11666"/>
+            <a:gd name="adj2" fmla="val 23696"/>
+            <a:gd name="adj3" fmla="val 21715"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Quad Arrow 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="1562100"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Quad Arrow 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="2298700"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Quad Arrow 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340100" y="1562100"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Quad Arrow 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340100" y="2286000"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Quad Arrow 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4051300" y="2286000"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Quad Arrow 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="2997200"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Quad Arrow 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340100" y="2984500"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Quad Arrow 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="2997200"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Quad Arrow 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="1587500"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Left-Up Arrow 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="1930400"/>
+          <a:ext cx="304800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11666"/>
+            <a:gd name="adj2" fmla="val 23696"/>
+            <a:gd name="adj3" fmla="val 21715"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Quad Arrow 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6908800" y="850900"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Quad Arrow 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="850900"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Quad Arrow 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="876300"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Quad Arrow 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6883400" y="3683000"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Quad Arrow 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7594600" y="3683000"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Quad Arrow 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8318500" y="3708400"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Quad Arrow 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6197600" y="1562100"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Quad Arrow 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6197600" y="2298700"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Quad Arrow 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6197600" y="2997200"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Quad Arrow 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210300" y="850900"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Quad Arrow 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6184900" y="3683000"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Quad Arrow 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9042400" y="1549400"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Quad Arrow 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9042400" y="2286000"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Quad Arrow 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9042400" y="2984500"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Quad Arrow 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9055100" y="838200"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Quad Arrow 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="3670300"/>
+          <a:ext cx="431800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="quadArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7891"/>
+            <a:gd name="adj2" fmla="val 17328"/>
+            <a:gd name="adj3" fmla="val 20690"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +3916,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E2:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.6640625" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="5:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="8"/>
+    </row>
+    <row r="3" spans="5:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="11"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="12"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="12"/>
+    </row>
+    <row r="4" spans="5:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="10"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="9"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="9"/>
+    </row>
+    <row r="5" spans="5:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="11"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="12"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="12"/>
+    </row>
+    <row r="6" spans="5:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="10"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="9"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="9"/>
+    </row>
+    <row r="7" spans="5:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="11"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="12"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="12"/>
+    </row>
+    <row r="8" spans="5:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="10"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="9"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="9"/>
+    </row>
+    <row r="9" spans="5:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="11"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="12"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="12"/>
+    </row>
+    <row r="10" spans="5:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="10"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="9"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="9"/>
+    </row>
+    <row r="11" spans="5:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="11"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="12"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="12"/>
+    </row>
+    <row r="12" spans="5:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="9"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="9"/>
+    </row>
+    <row r="13" spans="5:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="8"/>
+    </row>
+    <row r="14" spans="5:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>